--- a/update_data/data/suning_biu/intention/意图-回答.xlsx
+++ b/update_data/data/suning_biu/intention/意图-回答.xlsx
@@ -157,15 +157,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请您扫描二维码下载苏宁金融，按照APP的提示注册或登录，并完成实名认证就可进店。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录成功后请按照APP的提示输入身份证号等个人信息，完成实名认证再绑定人脸后就可以进店了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您扫描二维码下载苏宁金融，按照APP的提示注册或登录，并完成实名认证。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,13 +576,13 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="87.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
@@ -609,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -718,7 +718,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -748,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
